--- a/s1data1_tbl_millen.xlsx
+++ b/s1data1_tbl_millen.xlsx
@@ -1,65 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chase Polak\Downloads\GEOG 4300\Version 2 CURO-GICH\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93454C38-56D4-4AA1-BEA9-690BDF5DF4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>landlord</t>
-  </si>
-  <si>
-    <t>Dilapidated</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Substandard</t>
-  </si>
-  <si>
-    <t>intown_landlord</t>
-  </si>
-  <si>
-    <t>outtown_landlord</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>singleowner</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Millen</t>
-  </si>
-  <si>
-    <t>p-value &lt; 2.2e-16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">primary_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilapidated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substandard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outtown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleowner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,36 +57,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,56 +74,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DC6DF17-1088-420C-A39C-70800F1E2654}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{AA680AB7-9DB4-46E0-A8E6-9FF0161CA230}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{10B780D3-79E1-4947-AA78-8C22C990D2B8}" name="City"/>
-    <tableColumn id="2" xr3:uid="{B640ECCD-F072-479B-B253-E502276BFB15}" name="landlord"/>
-    <tableColumn id="3" xr3:uid="{82F598E6-48F0-49D6-9BE8-795041352AA9}" name="Dilapidated"/>
-    <tableColumn id="5" xr3:uid="{7DD2DBA2-0C04-45CA-B64C-2BA185DD3DF5}" name="Substandard"/>
-    <tableColumn id="4" xr3:uid="{591DE16C-17C2-4EE4-9D99-7DB4E1791AB5}" name="Standard"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,116 +366,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>42.6</v>
-      </c>
-      <c r="D2">
-        <v>21.5</v>
-      </c>
-      <c r="E2">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>28.2</v>
-      </c>
-      <c r="D3">
-        <v>21.4</v>
-      </c>
-      <c r="E3">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>16.7</v>
-      </c>
-      <c r="D4">
-        <v>12.2</v>
-      </c>
-      <c r="E4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>30.1</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="2" t="s">
-        <v>10</v>
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>